--- a/RealData/features_bic.xlsx
+++ b/RealData/features_bic.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangli/Dropbox/Dissertation/Project2-Opioid/2021/02122021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangli/Dropbox/Dissertation/Project2-Opioid/GitHub/RealData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9CA98C13-C95D-5D48-A062-E9FA78667115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E85FF6E7-6275-0C40-A578-F22C577A9C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="960" windowWidth="27040" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="3420" windowWidth="27040" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features_bic" sheetId="1" r:id="rId1"/>
+    <sheet name="reference_features" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="192" uniqueCount="70">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="405" uniqueCount="81">
   <si>
     <t>AGE</t>
   </si>
@@ -244,6 +245,39 @@
   </si>
   <si>
     <t>lambda</t>
+  </si>
+  <si>
+    <t>Appendix-Fig1-Fig2</t>
+  </si>
+  <si>
+    <t>Appendix-Tab1</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>payment-type</t>
+  </si>
+  <si>
+    <t>physician-employment status</t>
+  </si>
+  <si>
+    <t>total Number of Chronic Conditions</t>
+  </si>
+  <si>
+    <t>16/22</t>
+  </si>
+  <si>
+    <t>16/27</t>
+  </si>
+  <si>
+    <t>13/23</t>
+  </si>
+  <si>
+    <t>13/24</t>
+  </si>
+  <si>
+    <t>13/30</t>
   </si>
 </sst>
 </file>
@@ -758,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -776,6 +810,8 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1133,8 +1169,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,4 +2048,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BC566-7F3E-4B4F-A156-F5C003FD3C3F}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>